--- a/model/result/analyzed_content.xlsx
+++ b/model/result/analyzed_content.xlsx
@@ -325,12 +325,13 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42.33"/>
